--- a/FAO/DSD_FI_CAPTURE.xlsx
+++ b/FAO/DSD_FI_CAPTURE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programs\Github\RefData\FAO-dsd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfao-my.sharepoint.com/personal/sara_montanaro_fao_org/Documents/DISSEMINATED_CSV/2024/Capture_2024.1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_90F6CE7D5CFF0494CFAAF81937D0A1E3DBCA5CE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{178CDB4F-EC9B-4810-B4FE-40F5FC2FBA47}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5745" windowHeight="4425"/>
+    <workbookView xWindow="3330" yWindow="5955" windowWidth="22050" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -56,9 +57,6 @@
     <t>DSD for Global Capture Production</t>
   </si>
   <si>
-    <t>CL_FI_SYMBOL</t>
-  </si>
-  <si>
     <t>Codelist_Code_id</t>
   </si>
   <si>
@@ -107,9 +105,6 @@
     <t>ASFIS species</t>
   </si>
   <si>
-    <t>FAO statistical symbol</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -150,12 +145,18 @@
   </si>
   <si>
     <t>STATUS</t>
+  </si>
+  <si>
+    <t>CL_FI_SYMBOL_SDMX</t>
+  </si>
+  <si>
+    <t>FAO SDMX statistical symbol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,12 +253,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -269,9 +267,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -281,10 +276,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -300,7 +295,7 @@
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -577,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,163 +589,163 @@
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>19</v>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
+      <c r="A8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
